--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pf4-Thbd.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pf4-Thbd.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.631877333333333</v>
+        <v>5.090240666666667</v>
       </c>
       <c r="H2">
-        <v>7.895632</v>
+        <v>15.270722</v>
       </c>
       <c r="I2">
-        <v>0.01066221345642817</v>
+        <v>0.01518526656315472</v>
       </c>
       <c r="J2">
-        <v>0.01071963230056122</v>
+        <v>0.01525191836740238</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.30519333333334</v>
+        <v>30.66015566666666</v>
       </c>
       <c r="N2">
-        <v>117.91558</v>
+        <v>91.98046699999999</v>
       </c>
       <c r="O2">
-        <v>0.5006492135628842</v>
+        <v>0.5275983757543724</v>
       </c>
       <c r="P2">
-        <v>0.5206099073015165</v>
+        <v>0.5341319965630132</v>
       </c>
       <c r="Q2">
-        <v>103.4464474162844</v>
+        <v>156.0675712207971</v>
       </c>
       <c r="R2">
-        <v>931.0180267465601</v>
+        <v>1404.608140987174</v>
       </c>
       <c r="S2">
-        <v>0.005338028781800362</v>
+        <v>0.008011721974117611</v>
       </c>
       <c r="T2">
-        <v>0.005580746778301517</v>
+        <v>0.008146537608996729</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.631877333333333</v>
+        <v>5.090240666666667</v>
       </c>
       <c r="H3">
-        <v>7.895632</v>
+        <v>15.270722</v>
       </c>
       <c r="I3">
-        <v>0.01066221345642817</v>
+        <v>0.01518526656315472</v>
       </c>
       <c r="J3">
-        <v>0.01071963230056122</v>
+        <v>0.01525191836740238</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>27.203413</v>
       </c>
       <c r="O3">
-        <v>0.1155009993138849</v>
+        <v>0.1560383088050138</v>
       </c>
       <c r="P3">
-        <v>0.1201059802293714</v>
+        <v>0.1579706406471956</v>
       </c>
       <c r="Q3">
-        <v>23.86534868800178</v>
+        <v>46.15730637490956</v>
       </c>
       <c r="R3">
-        <v>214.788138192016</v>
+        <v>415.4157573741861</v>
       </c>
       <c r="S3">
-        <v>0.001231496309115404</v>
+        <v>0.002369483313267987</v>
       </c>
       <c r="T3">
-        <v>0.001287491945157337</v>
+        <v>0.002409355315597284</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.631877333333333</v>
+        <v>5.090240666666667</v>
       </c>
       <c r="H4">
-        <v>7.895632</v>
+        <v>15.270722</v>
       </c>
       <c r="I4">
-        <v>0.01066221345642817</v>
+        <v>0.01518526656315472</v>
       </c>
       <c r="J4">
-        <v>0.01071963230056122</v>
+        <v>0.01525191836740238</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.207392666666666</v>
+        <v>9.372717333333334</v>
       </c>
       <c r="N4">
-        <v>18.622178</v>
+        <v>28.118152</v>
       </c>
       <c r="O4">
-        <v>0.07906655567082858</v>
+        <v>0.1612852359666163</v>
       </c>
       <c r="P4">
-        <v>0.08221890917495667</v>
+        <v>0.1632825441886731</v>
       </c>
       <c r="Q4">
-        <v>16.33709605849955</v>
+        <v>47.7093869273049</v>
       </c>
       <c r="R4">
-        <v>147.033864526496</v>
+        <v>429.3844823457441</v>
       </c>
       <c r="S4">
-        <v>0.0008430244938269352</v>
+        <v>0.002449159300854377</v>
       </c>
       <c r="T4">
-        <v>0.0008813564745087745</v>
+        <v>0.002490372034787415</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2.631877333333333</v>
+        <v>5.090240666666667</v>
       </c>
       <c r="H5">
-        <v>7.895632</v>
+        <v>15.270722</v>
       </c>
       <c r="I5">
-        <v>0.01066221345642817</v>
+        <v>0.01518526656315472</v>
       </c>
       <c r="J5">
-        <v>0.01071963230056122</v>
+        <v>0.01525191836740238</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.030272500000001</v>
+        <v>2.1325415</v>
       </c>
       <c r="N5">
-        <v>18.060545</v>
+        <v>4.265083000000001</v>
       </c>
       <c r="O5">
-        <v>0.1150229382423478</v>
+        <v>0.03669666403070534</v>
       </c>
       <c r="P5">
-        <v>0.07973923936315172</v>
+        <v>0.02476740304326751</v>
       </c>
       <c r="Q5">
-        <v>23.76656950657333</v>
+        <v>10.85514946665434</v>
       </c>
       <c r="R5">
-        <v>142.59941703944</v>
+        <v>65.13089679992602</v>
       </c>
       <c r="S5">
-        <v>0.001226399119925466</v>
+        <v>0.0005572486252847924</v>
       </c>
       <c r="T5">
-        <v>0.0008547753258994237</v>
+        <v>0.0003777504093884694</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>2.631877333333333</v>
+        <v>5.090240666666667</v>
       </c>
       <c r="H6">
-        <v>7.895632</v>
+        <v>15.270722</v>
       </c>
       <c r="I6">
-        <v>0.01066221345642817</v>
+        <v>0.01518526656315472</v>
       </c>
       <c r="J6">
-        <v>0.01071963230056122</v>
+        <v>0.01525191836740238</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.89778633333333</v>
+        <v>6.879461333333333</v>
       </c>
       <c r="N6">
-        <v>44.69335899999999</v>
+        <v>20.638384</v>
       </c>
       <c r="O6">
-        <v>0.1897602932100546</v>
+        <v>0.1183814154432922</v>
       </c>
       <c r="P6">
-        <v>0.1973259639310038</v>
+        <v>0.1198474155578504</v>
       </c>
       <c r="Q6">
-        <v>39.2091461675431</v>
+        <v>35.01811384369422</v>
       </c>
       <c r="R6">
-        <v>352.8823155078879</v>
+        <v>315.163024593248</v>
       </c>
       <c r="S6">
-        <v>0.002023264751759998</v>
+        <v>0.001797653349629953</v>
       </c>
       <c r="T6">
-        <v>0.002115261776694166</v>
+        <v>0.001827902998632485</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3.060866</v>
       </c>
       <c r="I7">
-        <v>0.00413337483985113</v>
+        <v>0.003043737298347591</v>
       </c>
       <c r="J7">
-        <v>0.004155634158391578</v>
+        <v>0.003057096996825524</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>39.30519333333334</v>
+        <v>30.66015566666666</v>
       </c>
       <c r="N7">
-        <v>117.91558</v>
+        <v>91.98046699999999</v>
       </c>
       <c r="O7">
-        <v>0.5006492135628842</v>
+        <v>0.5275983757543724</v>
       </c>
       <c r="P7">
-        <v>0.5206099073015165</v>
+        <v>0.5341319965630132</v>
       </c>
       <c r="Q7">
-        <v>40.10264329914222</v>
+        <v>31.28220934493578</v>
       </c>
       <c r="R7">
-        <v>360.92378969228</v>
+        <v>281.539884104422</v>
       </c>
       <c r="S7">
-        <v>0.00206937086293208</v>
+        <v>0.001605870854831191</v>
       </c>
       <c r="T7">
-        <v>0.002163464313979255</v>
+        <v>0.001632893322601209</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3.060866</v>
       </c>
       <c r="I8">
-        <v>0.00413337483985113</v>
+        <v>0.003043737298347591</v>
       </c>
       <c r="J8">
-        <v>0.004155634158391578</v>
+        <v>0.003057096996825524</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>27.203413</v>
       </c>
       <c r="O8">
-        <v>0.1155009993138849</v>
+        <v>0.1560383088050138</v>
       </c>
       <c r="P8">
-        <v>0.1201059802293714</v>
+        <v>0.1579706406471956</v>
       </c>
       <c r="Q8">
         <v>9.251777992850888</v>
@@ -948,10 +948,10 @@
         <v>83.266001935658</v>
       </c>
       <c r="S8">
-        <v>0.0004774089245416744</v>
+        <v>0.0004749396204808999</v>
       </c>
       <c r="T8">
-        <v>0.0004991165140682795</v>
+        <v>0.0004829315711091457</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>3.060866</v>
       </c>
       <c r="I9">
-        <v>0.00413337483985113</v>
+        <v>0.003043737298347591</v>
       </c>
       <c r="J9">
-        <v>0.004155634158391578</v>
+        <v>0.003057096996825524</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.207392666666666</v>
+        <v>9.372717333333334</v>
       </c>
       <c r="N9">
-        <v>18.622178</v>
+        <v>28.118152</v>
       </c>
       <c r="O9">
-        <v>0.07906655567082858</v>
+        <v>0.1612852359666163</v>
       </c>
       <c r="P9">
-        <v>0.08221890917495667</v>
+        <v>0.1632825441886731</v>
       </c>
       <c r="Q9">
-        <v>6.333332387349778</v>
+        <v>9.562877271070223</v>
       </c>
       <c r="R9">
-        <v>56.99999148614799</v>
+        <v>86.065895439632</v>
       </c>
       <c r="S9">
-        <v>0.0003268117118834915</v>
+        <v>0.0004909098883843823</v>
       </c>
       <c r="T9">
-        <v>0.0003416717074331446</v>
+        <v>0.0004991705754732234</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>3.060866</v>
       </c>
       <c r="I10">
-        <v>0.00413337483985113</v>
+        <v>0.003043737298347591</v>
       </c>
       <c r="J10">
-        <v>0.004155634158391578</v>
+        <v>0.003057096996825524</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.030272500000001</v>
+        <v>2.1325415</v>
       </c>
       <c r="N10">
-        <v>18.060545</v>
+        <v>4.265083000000001</v>
       </c>
       <c r="O10">
-        <v>0.1150229382423478</v>
+        <v>0.03669666403070534</v>
       </c>
       <c r="P10">
-        <v>0.07973923936315172</v>
+        <v>0.02476740304326751</v>
       </c>
       <c r="Q10">
-        <v>9.213484688661667</v>
+        <v>2.175807923646333</v>
       </c>
       <c r="R10">
-        <v>55.28090813197</v>
+        <v>13.054847541878</v>
       </c>
       <c r="S10">
-        <v>0.0004754329189366707</v>
+        <v>0.0001116950050351883</v>
       </c>
       <c r="T10">
-        <v>0.0003313671068616755</v>
+        <v>7.571635346274045E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>3.060866</v>
       </c>
       <c r="I11">
-        <v>0.00413337483985113</v>
+        <v>0.003043737298347591</v>
       </c>
       <c r="J11">
-        <v>0.004155634158391578</v>
+        <v>0.003057096996825524</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.89778633333333</v>
+        <v>6.879461333333333</v>
       </c>
       <c r="N11">
-        <v>44.69335899999999</v>
+        <v>20.638384</v>
       </c>
       <c r="O11">
-        <v>0.1897602932100546</v>
+        <v>0.1183814154432922</v>
       </c>
       <c r="P11">
-        <v>0.1973259639310038</v>
+        <v>0.1198474155578504</v>
       </c>
       <c r="Q11">
-        <v>15.20004255432155</v>
+        <v>7.019036431171554</v>
       </c>
       <c r="R11">
-        <v>136.800382988894</v>
+        <v>63.17132788054399</v>
       </c>
       <c r="S11">
-        <v>0.0007843504215572128</v>
+        <v>0.00036032192961593</v>
       </c>
       <c r="T11">
-        <v>0.0008200145160492237</v>
+        <v>0.0003663851741792051</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>110.36247</v>
+        <v>69.13821133333333</v>
       </c>
       <c r="H12">
-        <v>331.08741</v>
+        <v>207.414634</v>
       </c>
       <c r="I12">
-        <v>0.4470984258329098</v>
+        <v>0.206253935235621</v>
       </c>
       <c r="J12">
-        <v>0.4495061693028696</v>
+        <v>0.2071592335956769</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>39.30519333333334</v>
+        <v>30.66015566666666</v>
       </c>
       <c r="N12">
-        <v>117.91558</v>
+        <v>91.98046699999999</v>
       </c>
       <c r="O12">
-        <v>0.5006492135628842</v>
+        <v>0.5275983757543724</v>
       </c>
       <c r="P12">
-        <v>0.5206099073015165</v>
+        <v>0.5341319965630132</v>
       </c>
       <c r="Q12">
-        <v>4337.8182200942</v>
+        <v>2119.788321994897</v>
       </c>
       <c r="R12">
-        <v>39040.3639808478</v>
+        <v>19078.09489795407</v>
       </c>
       <c r="S12">
-        <v>0.2238394752784498</v>
+        <v>0.1088192412232612</v>
       </c>
       <c r="T12">
-        <v>0.2340173651322267</v>
+        <v>0.1106503750469225</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>110.36247</v>
+        <v>69.13821133333333</v>
       </c>
       <c r="H13">
-        <v>331.08741</v>
+        <v>207.414634</v>
       </c>
       <c r="I13">
-        <v>0.4470984258329098</v>
+        <v>0.206253935235621</v>
       </c>
       <c r="J13">
-        <v>0.4495061693028696</v>
+        <v>0.2071592335956769</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>27.203413</v>
       </c>
       <c r="O13">
-        <v>0.1155009993138849</v>
+        <v>0.1560383088050138</v>
       </c>
       <c r="P13">
-        <v>0.1201059802293714</v>
+        <v>0.1579706406471956</v>
       </c>
       <c r="Q13">
-        <v>1000.74528370337</v>
+        <v>626.9317723273157</v>
       </c>
       <c r="R13">
-        <v>9006.70755333033</v>
+        <v>5642.385950945842</v>
       </c>
       <c r="S13">
-        <v>0.05164031497536593</v>
+        <v>0.03218351523854515</v>
       </c>
       <c r="T13">
-        <v>0.05398837908327094</v>
+        <v>0.03272507684709113</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>110.36247</v>
+        <v>69.13821133333333</v>
       </c>
       <c r="H14">
-        <v>331.08741</v>
+        <v>207.414634</v>
       </c>
       <c r="I14">
-        <v>0.4470984258329098</v>
+        <v>0.206253935235621</v>
       </c>
       <c r="J14">
-        <v>0.4495061693028696</v>
+        <v>0.2071592335956769</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.207392666666666</v>
+        <v>9.372717333333334</v>
       </c>
       <c r="N14">
-        <v>18.622178</v>
+        <v>28.118152</v>
       </c>
       <c r="O14">
-        <v>0.07906655567082858</v>
+        <v>0.1612852359666163</v>
       </c>
       <c r="P14">
-        <v>0.08221890917495667</v>
+        <v>0.1632825441886731</v>
       </c>
       <c r="Q14">
-        <v>685.0631869532199</v>
+        <v>648.0129117595965</v>
       </c>
       <c r="R14">
-        <v>6165.568682578979</v>
+        <v>5832.116205836368</v>
       </c>
       <c r="S14">
-        <v>0.03535053257645759</v>
+        <v>0.03326571461352033</v>
       </c>
       <c r="T14">
-        <v>0.03695790690749533</v>
+        <v>0.03382548671367776</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>110.36247</v>
+        <v>69.13821133333333</v>
       </c>
       <c r="H15">
-        <v>331.08741</v>
+        <v>207.414634</v>
       </c>
       <c r="I15">
-        <v>0.4470984258329098</v>
+        <v>0.206253935235621</v>
       </c>
       <c r="J15">
-        <v>0.4495061693028696</v>
+        <v>0.2071592335956769</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.030272500000001</v>
+        <v>2.1325415</v>
       </c>
       <c r="N15">
-        <v>18.060545</v>
+        <v>4.265083000000001</v>
       </c>
       <c r="O15">
-        <v>0.1150229382423478</v>
+        <v>0.03669666403070534</v>
       </c>
       <c r="P15">
-        <v>0.07973923936315172</v>
+        <v>0.02476740304326751</v>
       </c>
       <c r="Q15">
-        <v>996.603177873075</v>
+        <v>147.4401049041037</v>
       </c>
       <c r="R15">
-        <v>5979.61906723845</v>
+        <v>884.640629424622</v>
       </c>
       <c r="S15">
-        <v>0.0514265746228297</v>
+        <v>0.007568831366352445</v>
       </c>
       <c r="T15">
-        <v>0.03584328002925492</v>
+        <v>0.005130796232598533</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>110.36247</v>
+        <v>69.13821133333333</v>
       </c>
       <c r="H16">
-        <v>331.08741</v>
+        <v>207.414634</v>
       </c>
       <c r="I16">
-        <v>0.4470984258329098</v>
+        <v>0.206253935235621</v>
       </c>
       <c r="J16">
-        <v>0.4495061693028696</v>
+        <v>0.2071592335956769</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.89778633333333</v>
+        <v>6.879461333333333</v>
       </c>
       <c r="N16">
-        <v>44.69335899999999</v>
+        <v>20.638384</v>
       </c>
       <c r="O16">
-        <v>0.1897602932100546</v>
+        <v>0.1183814154432922</v>
       </c>
       <c r="P16">
-        <v>0.1973259639310038</v>
+        <v>0.1198474155578504</v>
       </c>
       <c r="Q16">
-        <v>1644.156497278909</v>
+        <v>475.633651523495</v>
       </c>
       <c r="R16">
-        <v>14797.40847551019</v>
+        <v>4280.702863711455</v>
       </c>
       <c r="S16">
-        <v>0.08484152837980681</v>
+        <v>0.02441663279394194</v>
       </c>
       <c r="T16">
-        <v>0.08869923815062172</v>
+        <v>0.0248274987553869</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>3.9665605</v>
+        <v>4.394653</v>
       </c>
       <c r="H17">
-        <v>7.933121000000001</v>
+        <v>8.789306</v>
       </c>
       <c r="I17">
-        <v>0.01606925756120717</v>
+        <v>0.01311018115402158</v>
       </c>
       <c r="J17">
-        <v>0.01077052984686476</v>
+        <v>0.008778483271329277</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>39.30519333333334</v>
+        <v>30.66015566666666</v>
       </c>
       <c r="N17">
-        <v>117.91558</v>
+        <v>91.98046699999999</v>
       </c>
       <c r="O17">
-        <v>0.5006492135628842</v>
+        <v>0.5275983757543724</v>
       </c>
       <c r="P17">
-        <v>0.5206099073015165</v>
+        <v>0.5341319965630132</v>
       </c>
       <c r="Q17">
-        <v>155.9064273208633</v>
+        <v>134.7407450809837</v>
       </c>
       <c r="R17">
-        <v>935.4385639251801</v>
+        <v>808.4444704859019</v>
       </c>
       <c r="S17">
-        <v>0.008045061160557802</v>
+        <v>0.006916910282707369</v>
       </c>
       <c r="T17">
-        <v>0.005607244545164479</v>
+        <v>0.004688868796510119</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>3.9665605</v>
+        <v>4.394653</v>
       </c>
       <c r="H18">
-        <v>7.933121000000001</v>
+        <v>8.789306</v>
       </c>
       <c r="I18">
-        <v>0.01606925756120717</v>
+        <v>0.01311018115402158</v>
       </c>
       <c r="J18">
-        <v>0.01077052984686476</v>
+        <v>0.008778483271329277</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>27.203413</v>
       </c>
       <c r="O18">
-        <v>0.1155009993138849</v>
+        <v>0.1560383088050138</v>
       </c>
       <c r="P18">
-        <v>0.1201059802293714</v>
+        <v>0.1579706406471956</v>
       </c>
       <c r="Q18">
-        <v>35.96799449032883</v>
+        <v>39.84985351689633</v>
       </c>
       <c r="R18">
-        <v>215.807966941973</v>
+        <v>239.099121101378</v>
       </c>
       <c r="S18">
-        <v>0.001856015306551629</v>
+        <v>0.002045690495400891</v>
       </c>
       <c r="T18">
-        <v>0.001293605044847394</v>
+        <v>0.001386742626282575</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>3.9665605</v>
+        <v>4.394653</v>
       </c>
       <c r="H19">
-        <v>7.933121000000001</v>
+        <v>8.789306</v>
       </c>
       <c r="I19">
-        <v>0.01606925756120717</v>
+        <v>0.01311018115402158</v>
       </c>
       <c r="J19">
-        <v>0.01077052984686476</v>
+        <v>0.008778483271329277</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.207392666666666</v>
+        <v>9.372717333333334</v>
       </c>
       <c r="N19">
-        <v>18.622178</v>
+        <v>28.118152</v>
       </c>
       <c r="O19">
-        <v>0.07906655567082858</v>
+        <v>0.1612852359666163</v>
       </c>
       <c r="P19">
-        <v>0.08221890917495667</v>
+        <v>0.1632825441886731</v>
       </c>
       <c r="Q19">
-        <v>24.62199855958967</v>
+        <v>41.18984034708534</v>
       </c>
       <c r="R19">
-        <v>147.731991357538</v>
+        <v>247.139042082512</v>
       </c>
       <c r="S19">
-        <v>0.00127054084755207</v>
+        <v>0.002114478660991456</v>
       </c>
       <c r="T19">
-        <v>0.0008855412152455337</v>
+        <v>0.00143337308266035</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>3.9665605</v>
+        <v>4.394653</v>
       </c>
       <c r="H20">
-        <v>7.933121000000001</v>
+        <v>8.789306</v>
       </c>
       <c r="I20">
-        <v>0.01606925756120717</v>
+        <v>0.01311018115402158</v>
       </c>
       <c r="J20">
-        <v>0.01077052984686476</v>
+        <v>0.008778483271329277</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.030272500000001</v>
+        <v>2.1325415</v>
       </c>
       <c r="N20">
-        <v>18.060545</v>
+        <v>4.265083000000001</v>
       </c>
       <c r="O20">
-        <v>0.1150229382423478</v>
+        <v>0.03669666403070534</v>
       </c>
       <c r="P20">
-        <v>0.07973923936315172</v>
+        <v>0.02476740304326751</v>
       </c>
       <c r="Q20">
-        <v>35.81912220273625</v>
+        <v>9.371779900599501</v>
       </c>
       <c r="R20">
-        <v>143.276488810945</v>
+        <v>37.487119602398</v>
       </c>
       <c r="S20">
-        <v>0.001848333220063113</v>
+        <v>0.0004810999131908148</v>
       </c>
       <c r="T20">
-        <v>0.000858833857527119</v>
+        <v>0.0002174202332895937</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>3.9665605</v>
+        <v>4.394653</v>
       </c>
       <c r="H21">
-        <v>7.933121000000001</v>
+        <v>8.789306</v>
       </c>
       <c r="I21">
-        <v>0.01606925756120717</v>
+        <v>0.01311018115402158</v>
       </c>
       <c r="J21">
-        <v>0.01077052984686476</v>
+        <v>0.008778483271329277</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.89778633333333</v>
+        <v>6.879461333333333</v>
       </c>
       <c r="N21">
-        <v>44.69335899999999</v>
+        <v>20.638384</v>
       </c>
       <c r="O21">
-        <v>0.1897602932100546</v>
+        <v>0.1183814154432922</v>
       </c>
       <c r="P21">
-        <v>0.1973259639310038</v>
+        <v>0.1198474155578504</v>
       </c>
       <c r="Q21">
-        <v>59.09297080723983</v>
+        <v>30.23284538691733</v>
       </c>
       <c r="R21">
-        <v>354.557824843439</v>
+        <v>181.397072321504</v>
       </c>
       <c r="S21">
-        <v>0.00304930702648256</v>
+        <v>0.001552001801731048</v>
       </c>
       <c r="T21">
-        <v>0.002125305184080236</v>
+        <v>0.001052078532586638</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>128.860357</v>
+        <v>255.5657806666667</v>
       </c>
       <c r="H22">
-        <v>386.5810710000001</v>
+        <v>766.6973419999999</v>
       </c>
       <c r="I22">
-        <v>0.5220367283096038</v>
+        <v>0.7624068797488551</v>
       </c>
       <c r="J22">
-        <v>0.5248480343913128</v>
+        <v>0.765753267768766</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>39.30519333333334</v>
+        <v>30.66015566666666</v>
       </c>
       <c r="N22">
-        <v>117.91558</v>
+        <v>91.98046699999999</v>
       </c>
       <c r="O22">
-        <v>0.5006492135628842</v>
+        <v>0.5275983757543724</v>
       </c>
       <c r="P22">
-        <v>0.5206099073015165</v>
+        <v>0.5341319965630132</v>
       </c>
       <c r="Q22">
-        <v>5064.881244887354</v>
+        <v>7835.68661831319</v>
       </c>
       <c r="R22">
-        <v>45583.93120398619</v>
+        <v>70521.1795648187</v>
       </c>
       <c r="S22">
-        <v>0.2613572774791442</v>
+        <v>0.4022446314194551</v>
       </c>
       <c r="T22">
-        <v>0.2732410865318445</v>
+        <v>0.4090133217879827</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>128.860357</v>
+        <v>255.5657806666667</v>
       </c>
       <c r="H23">
-        <v>386.5810710000001</v>
+        <v>766.6973419999999</v>
       </c>
       <c r="I23">
-        <v>0.5220367283096038</v>
+        <v>0.7624068797488551</v>
       </c>
       <c r="J23">
-        <v>0.5248480343913128</v>
+        <v>0.765753267768766</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>27.203413</v>
       </c>
       <c r="O23">
-        <v>0.1155009993138849</v>
+        <v>0.1560383088050138</v>
       </c>
       <c r="P23">
-        <v>0.1201059802293714</v>
+        <v>0.1579706406471956</v>
       </c>
       <c r="Q23">
-        <v>1168.48050359948</v>
+        <v>2317.420493380916</v>
       </c>
       <c r="R23">
-        <v>10516.32453239533</v>
+        <v>20856.78444042824</v>
       </c>
       <c r="S23">
-        <v>0.06029576379831025</v>
+        <v>0.1189646801373189</v>
       </c>
       <c r="T23">
-        <v>0.06303738764202747</v>
+        <v>0.1209665342871155</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>128.860357</v>
+        <v>255.5657806666667</v>
       </c>
       <c r="H24">
-        <v>386.5810710000001</v>
+        <v>766.6973419999999</v>
       </c>
       <c r="I24">
-        <v>0.5220367283096038</v>
+        <v>0.7624068797488551</v>
       </c>
       <c r="J24">
-        <v>0.5248480343913128</v>
+        <v>0.765753267768766</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.207392666666666</v>
+        <v>9.372717333333334</v>
       </c>
       <c r="N24">
-        <v>18.622178</v>
+        <v>28.118152</v>
       </c>
       <c r="O24">
-        <v>0.07906655567082858</v>
+        <v>0.1612852359666163</v>
       </c>
       <c r="P24">
-        <v>0.08221890917495667</v>
+        <v>0.1632825441886731</v>
       </c>
       <c r="Q24">
-        <v>799.8868350658488</v>
+        <v>2395.345822261332</v>
       </c>
       <c r="R24">
-        <v>7198.981515592638</v>
+        <v>21558.11240035198</v>
       </c>
       <c r="S24">
-        <v>0.0412756460411085</v>
+        <v>0.1229649735028657</v>
       </c>
       <c r="T24">
-        <v>0.04315243287027388</v>
+        <v>0.1250341417820744</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>128.860357</v>
+        <v>255.5657806666667</v>
       </c>
       <c r="H25">
-        <v>386.5810710000001</v>
+        <v>766.6973419999999</v>
       </c>
       <c r="I25">
-        <v>0.5220367283096038</v>
+        <v>0.7624068797488551</v>
       </c>
       <c r="J25">
-        <v>0.5248480343913128</v>
+        <v>0.765753267768766</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.030272500000001</v>
+        <v>2.1325415</v>
       </c>
       <c r="N25">
-        <v>18.060545</v>
+        <v>4.265083000000001</v>
       </c>
       <c r="O25">
-        <v>0.1150229382423478</v>
+        <v>0.03669666403070534</v>
       </c>
       <c r="P25">
-        <v>0.07973923936315172</v>
+        <v>0.02476740304326751</v>
       </c>
       <c r="Q25">
-        <v>1163.644138157283</v>
+        <v>545.0046332515644</v>
       </c>
       <c r="R25">
-        <v>6981.864828943697</v>
+        <v>3270.027799509386</v>
       </c>
       <c r="S25">
-        <v>0.06004619836059285</v>
+        <v>0.02797778912084211</v>
       </c>
       <c r="T25">
-        <v>0.04185098304360858</v>
+        <v>0.01896571981452818</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>128.860357</v>
+        <v>255.5657806666667</v>
       </c>
       <c r="H26">
-        <v>386.5810710000001</v>
+        <v>766.6973419999999</v>
       </c>
       <c r="I26">
-        <v>0.5220367283096038</v>
+        <v>0.7624068797488551</v>
       </c>
       <c r="J26">
-        <v>0.5248480343913128</v>
+        <v>0.765753267768766</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.89778633333333</v>
+        <v>6.879461333333333</v>
       </c>
       <c r="N26">
-        <v>44.69335899999999</v>
+        <v>20.638384</v>
       </c>
       <c r="O26">
-        <v>0.1897602932100546</v>
+        <v>0.1183814154432922</v>
       </c>
       <c r="P26">
-        <v>0.1973259639310038</v>
+        <v>0.1198474155578504</v>
       </c>
       <c r="Q26">
-        <v>1919.734065423054</v>
+        <v>1758.154906219481</v>
       </c>
       <c r="R26">
-        <v>17277.60658880749</v>
+        <v>15823.39415597533</v>
       </c>
       <c r="S26">
-        <v>0.09906184263044801</v>
+        <v>0.09025480556837333</v>
       </c>
       <c r="T26">
-        <v>0.1035661443035584</v>
+        <v>0.09177355009706521</v>
       </c>
     </row>
   </sheetData>
